--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.288329</v>
+        <v>23.699655</v>
       </c>
       <c r="H2">
-        <v>117.864987</v>
+        <v>71.09896499999999</v>
       </c>
       <c r="I2">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415696</v>
       </c>
       <c r="J2">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415697</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>4420.463161801968</v>
+        <v>1446.665010745815</v>
       </c>
       <c r="R2">
-        <v>39784.16845621771</v>
+        <v>13019.98509671234</v>
       </c>
       <c r="S2">
-        <v>0.2070776240207434</v>
+        <v>0.09895113580797001</v>
       </c>
       <c r="T2">
-        <v>0.2070776240207434</v>
+        <v>0.09895113580797002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.288329</v>
+        <v>23.699655</v>
       </c>
       <c r="H3">
-        <v>117.864987</v>
+        <v>71.09896499999999</v>
       </c>
       <c r="I3">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415696</v>
       </c>
       <c r="J3">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415697</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>4176.917717667314</v>
+        <v>2519.616165709229</v>
       </c>
       <c r="R3">
-        <v>37592.25945900583</v>
+        <v>22676.54549138307</v>
       </c>
       <c r="S3">
-        <v>0.1956686810963277</v>
+        <v>0.1723404378657893</v>
       </c>
       <c r="T3">
-        <v>0.1956686810963277</v>
+        <v>0.1723404378657894</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.288329</v>
+        <v>23.699655</v>
       </c>
       <c r="H4">
-        <v>117.864987</v>
+        <v>71.09896499999999</v>
       </c>
       <c r="I4">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415696</v>
       </c>
       <c r="J4">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415697</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>4898.926778290604</v>
+        <v>3112.674989448779</v>
       </c>
       <c r="R4">
-        <v>44090.34100461545</v>
+        <v>28014.07490503901</v>
       </c>
       <c r="S4">
-        <v>0.229491363318245</v>
+        <v>0.2129053535678102</v>
       </c>
       <c r="T4">
-        <v>0.229491363318245</v>
+        <v>0.2129053535678103</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>19.344283</v>
       </c>
       <c r="H5">
-        <v>58.03284899999999</v>
+        <v>58.032849</v>
       </c>
       <c r="I5">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="J5">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>2176.490896137936</v>
+        <v>1180.806107686592</v>
       </c>
       <c r="R5">
-        <v>19588.41806524142</v>
+        <v>10627.25496917933</v>
       </c>
       <c r="S5">
-        <v>0.1019582217921474</v>
+        <v>0.08076652483931963</v>
       </c>
       <c r="T5">
-        <v>0.1019582217921474</v>
+        <v>0.08076652483931963</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>19.344283</v>
       </c>
       <c r="H6">
-        <v>58.03284899999999</v>
+        <v>58.032849</v>
       </c>
       <c r="I6">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="J6">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>2056.577117297878</v>
@@ -818,10 +818,10 @@
         <v>18509.1940556809</v>
       </c>
       <c r="S6">
-        <v>0.09634083295739332</v>
+        <v>0.140668807306256</v>
       </c>
       <c r="T6">
-        <v>0.09634083295739335</v>
+        <v>0.140668807306256</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>19.344283</v>
       </c>
       <c r="H7">
-        <v>58.03284899999999</v>
+        <v>58.032849</v>
       </c>
       <c r="I7">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="J7">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>2412.070668506459</v>
+        <v>2540.647358913841</v>
       </c>
       <c r="R7">
-        <v>21708.63601655813</v>
+        <v>22865.82623022457</v>
       </c>
       <c r="S7">
-        <v>0.1129940109716539</v>
+        <v>0.1737789605642268</v>
       </c>
       <c r="T7">
-        <v>0.112994010971654</v>
+        <v>0.1737789605642269</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.509096666666667</v>
+        <v>5.902376333333333</v>
       </c>
       <c r="H8">
-        <v>10.52729</v>
+        <v>17.707129</v>
       </c>
       <c r="I8">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="J8">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>394.82036882256</v>
+        <v>360.2905325705168</v>
       </c>
       <c r="R8">
-        <v>3553.38331940304</v>
+        <v>3242.614793134651</v>
       </c>
       <c r="S8">
-        <v>0.01849545192396561</v>
+        <v>0.02464368541016377</v>
       </c>
       <c r="T8">
-        <v>0.01849545192396561</v>
+        <v>0.02464368541016377</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.509096666666667</v>
+        <v>5.902376333333333</v>
       </c>
       <c r="H9">
-        <v>10.52729</v>
+        <v>17.707129</v>
       </c>
       <c r="I9">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="J9">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>373.0677382590467</v>
+        <v>627.5079880093713</v>
       </c>
       <c r="R9">
-        <v>3357.60964433142</v>
+        <v>5647.571892084342</v>
       </c>
       <c r="S9">
-        <v>0.01747644489044536</v>
+        <v>0.04292122065639095</v>
       </c>
       <c r="T9">
-        <v>0.01747644489044537</v>
+        <v>0.04292122065639095</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.509096666666667</v>
+        <v>5.902376333333333</v>
       </c>
       <c r="H10">
-        <v>10.52729</v>
+        <v>17.707129</v>
       </c>
       <c r="I10">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="J10">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>437.555072091349</v>
+        <v>775.2087189067123</v>
       </c>
       <c r="R10">
-        <v>3937.995648822141</v>
+        <v>6976.878470160411</v>
       </c>
       <c r="S10">
-        <v>0.02049736902907839</v>
+        <v>0.05302387398207311</v>
       </c>
       <c r="T10">
-        <v>0.02049736902907839</v>
+        <v>0.05302387398207312</v>
       </c>
     </row>
   </sheetData>
